--- a/document/Tablas Taller 2.xlsx
+++ b/document/Tablas Taller 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller 2\Taller_2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F5E88-6F38-437B-80B2-A4B7C3462D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274AD3A-ECCE-454A-8FA9-3C5D7353E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4EF253AD-84DE-40BE-81C1-9111B258F326}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4EF253AD-84DE-40BE-81C1-9111B258F326}"/>
   </bookViews>
   <sheets>
     <sheet name="Apart" sheetId="3" r:id="rId1"/>
@@ -444,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +474,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,38 +497,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1801,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D32A37-677E-4E92-A692-BB11BA6A5C64}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1813,12 +1806,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1827,11 +1820,11 @@
       <c r="B3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2400,11 +2393,11 @@
       <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2436,12 +2429,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2450,11 +2443,11 @@
       <c r="B3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3023,11 +3016,11 @@
       <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3047,68 +3040,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A579E13-D82E-4E08-A457-80C04663EFF3}">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="4" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="11" max="12" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3126,7 +3119,7 @@
       <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -3146,120 +3139,120 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="I4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>28093</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>620780098</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>294379968</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>300000000</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>1650000000</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>9071</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <v>764700216</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="12">
         <v>336092666</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="11">
         <v>300000000</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="11">
         <v>1650000000</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>28093</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>4945436</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>2263592</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>542209</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>44852378</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>9071</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <v>4192018</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <v>3582735</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="11">
         <v>541015</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="11">
         <v>63093779</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>28093</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <v>2.6459999999999999</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="14">
         <v>0.78100000000000003</v>
       </c>
       <c r="F7">
@@ -3268,16 +3261,16 @@
       <c r="G7">
         <v>11</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>9071</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="15">
         <v>4.6849999999999996</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="14">
         <v>2.0350000000000001</v>
       </c>
       <c r="M7">
@@ -3288,16 +3281,16 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>28093</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <v>2.4609999999999999</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="14">
         <v>0.78800000000000003</v>
       </c>
       <c r="F8">
@@ -3306,16 +3299,16 @@
       <c r="G8">
         <v>11</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="11">
         <v>9071</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="15">
         <v>3.2570000000000001</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="14">
         <v>1.35</v>
       </c>
       <c r="M8">
@@ -3326,10 +3319,10 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>28093</v>
       </c>
       <c r="D9">
@@ -3344,10 +3337,10 @@
       <c r="G9">
         <v>571.73500000000001</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="11">
         <v>9071</v>
       </c>
       <c r="K9">
@@ -3364,10 +3357,10 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>28093</v>
       </c>
       <c r="D10">
@@ -3382,10 +3375,10 @@
       <c r="G10">
         <v>95</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="11">
         <v>9071</v>
       </c>
       <c r="K10">
@@ -3402,10 +3395,10 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>28093</v>
       </c>
       <c r="D11">
@@ -3417,13 +3410,13 @@
       <c r="F11">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="12">
         <v>3344.62</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <v>9071</v>
       </c>
       <c r="K11">
@@ -3435,53 +3428,53 @@
       <c r="M11">
         <v>1.345</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="12">
         <v>941.08399999999995</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>28093</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>8467.6470000000008</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>3143.53</v>
       </c>
       <c r="F12">
         <v>26.193000000000001</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <v>15649.56</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <v>9071</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="12">
         <v>6828.36</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="12">
         <v>3524.7730000000001</v>
       </c>
       <c r="M12">
         <v>80.126999999999995</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="12">
         <v>15763.01</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>28093</v>
       </c>
       <c r="D13">
@@ -3493,13 +3486,13 @@
       <c r="F13">
         <v>0.99</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <v>1539.7239999999999</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <v>9071</v>
       </c>
       <c r="K13">
@@ -3511,15 +3504,15 @@
       <c r="M13">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="12">
         <v>914.96299999999997</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>28093</v>
       </c>
       <c r="D14">
@@ -3531,13 +3524,13 @@
       <c r="F14">
         <v>1.216</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <v>3803.6460000000002</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <v>9071</v>
       </c>
       <c r="K14">
@@ -3549,15 +3542,15 @@
       <c r="M14">
         <v>3.1669999999999998</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="12">
         <v>2312.614</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>28093</v>
       </c>
       <c r="D15">
@@ -3569,13 +3562,13 @@
       <c r="F15">
         <v>0.57899999999999996</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
         <v>1357.6869999999999</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="11">
         <v>9071</v>
       </c>
       <c r="K15">
@@ -3587,15 +3580,15 @@
       <c r="M15">
         <v>1.7609999999999999</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="12">
         <v>1243.902</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>28093</v>
       </c>
       <c r="D16">
@@ -3607,13 +3600,13 @@
       <c r="F16">
         <v>1.171</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="12">
         <v>1506.62</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="11">
         <v>9071</v>
       </c>
       <c r="K16">
@@ -3625,15 +3618,15 @@
       <c r="M16">
         <v>1.625</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="12">
         <v>1220.5250000000001</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>28093</v>
       </c>
       <c r="D17">
@@ -3645,13 +3638,13 @@
       <c r="F17">
         <v>3.4980000000000002</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="12">
         <v>3999.3980000000001</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="11">
         <v>9071</v>
       </c>
       <c r="K17">
@@ -3663,18 +3656,18 @@
       <c r="M17">
         <v>5.0019999999999998</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="12">
         <v>4216.4059999999999</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>28093</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="16">
         <v>3.7389999999999999</v>
       </c>
       <c r="E18">
@@ -3686,13 +3679,13 @@
       <c r="G18">
         <v>4</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="11">
         <v>9071</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="16">
         <v>3.698</v>
       </c>
       <c r="L18">
@@ -3714,7 +3707,7 @@
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="22" t="s">
         <v>55</v>
       </c>
       <c r="J19" s="23" t="s">
@@ -3753,7 +3746,7 @@
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,108 +3767,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="J2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="J4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -3890,13 +3883,13 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="18">
         <v>162.96106905074711</v>
       </c>
       <c r="G5">
         <v>534</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="17">
         <v>5.8868922941241317</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -3911,13 +3904,13 @@
       <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="18">
         <v>115.9941262563091</v>
       </c>
       <c r="O5">
         <v>2960</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="17">
         <v>10.53643256327199</v>
       </c>
     </row>
@@ -3934,13 +3927,13 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="18">
         <v>184.1758814507719</v>
       </c>
       <c r="G6">
         <v>652</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="17">
         <v>7.1877411531253443</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -3955,13 +3948,13 @@
       <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="18">
         <v>120.1920286860212</v>
       </c>
       <c r="O6">
         <v>3787</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="17">
         <v>13.48022639091589</v>
       </c>
     </row>
@@ -3978,13 +3971,13 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="18">
         <v>191.4992548552394</v>
       </c>
       <c r="G7">
         <v>815</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="17">
         <v>8.9846764414066804</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -3999,11 +3992,13 @@
       <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="18">
+        <v>122.1672705785344</v>
+      </c>
       <c r="O7">
         <v>4231</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="17">
         <v>15.060691275406681</v>
       </c>
     </row>
@@ -4020,13 +4015,13 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="18">
         <v>211.30202109171421</v>
       </c>
       <c r="G8">
         <v>752</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="17">
         <v>8.2901554404145088</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -4041,13 +4036,13 @@
       <c r="M8" s="2">
         <v>2</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="18">
         <v>128.05243523218431</v>
       </c>
       <c r="O8">
         <v>3430</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="17">
         <v>12.209447193250989</v>
       </c>
     </row>
@@ -4064,13 +4059,13 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="18">
         <v>210.51470921792381</v>
       </c>
       <c r="G9">
         <v>946</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="17">
         <v>10.42883915775549</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -4085,13 +4080,13 @@
       <c r="M9" s="2">
         <v>2</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="18">
         <v>134.92467472221901</v>
       </c>
       <c r="O9">
         <v>3262</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="17">
         <v>11.61143345317339</v>
       </c>
     </row>
@@ -4108,13 +4103,13 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="18">
         <v>208.04334202423911</v>
       </c>
       <c r="G10">
         <v>1018</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="17">
         <v>11.222577444603679</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -4129,13 +4124,13 @@
       <c r="M10" s="2">
         <v>3</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="18">
         <v>138.77390642748591</v>
       </c>
       <c r="O10">
         <v>2797</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="17">
         <v>9.9562168511728899</v>
       </c>
     </row>
@@ -4152,13 +4147,13 @@
       <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="18">
         <v>223.08966249472289</v>
       </c>
       <c r="G11">
         <v>1026</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="17">
         <v>11.310770587586809</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -4173,13 +4168,13 @@
       <c r="M11" s="2">
         <v>3</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="18">
         <v>148.04746691684409</v>
       </c>
       <c r="O11">
         <v>2147</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="17">
         <v>7.642473213967893</v>
       </c>
     </row>
@@ -4196,13 +4191,13 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="18">
         <v>226.87390460849019</v>
       </c>
       <c r="G12">
         <v>1585</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="17">
         <v>17.473266453533238</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -4217,13 +4212,13 @@
       <c r="M12" s="2">
         <v>3</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="18">
         <v>161.5810723301928</v>
       </c>
       <c r="O12">
         <v>2733</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="17">
         <v>9.7284020930480892</v>
       </c>
     </row>
@@ -4240,13 +4235,13 @@
       <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="18">
         <v>231.83348094643651</v>
       </c>
       <c r="G13">
         <v>777</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="17">
         <v>8.5657590122367981</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -4261,13 +4256,13 @@
       <c r="M13" s="2">
         <v>3</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="18">
         <v>174.19145481602371</v>
       </c>
       <c r="O13">
         <v>1189</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="17">
         <v>4.2323710532872951</v>
       </c>
     </row>
@@ -4284,13 +4279,13 @@
       <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="18">
         <v>249.4940487370458</v>
       </c>
       <c r="G14">
         <v>535</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="17">
         <v>5.8979164369970238</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -4305,13 +4300,13 @@
       <c r="M14" s="2">
         <v>3</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="18">
         <v>191.11187208757309</v>
       </c>
       <c r="O14">
         <v>1057</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="17">
         <v>3.762503114654896</v>
       </c>
     </row>
@@ -4328,13 +4323,13 @@
       <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="18">
         <v>258.53918700332167</v>
       </c>
       <c r="G15">
         <v>431</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="17">
         <v>4.7514055782162936</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -4349,35 +4344,35 @@
       <c r="M15" s="2">
         <v>3</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="18">
         <v>207.1175337558731</v>
       </c>
       <c r="O15">
         <v>500</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="17">
         <v>1.779802797849998</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="J16" s="18" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="J16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/document/Tablas Taller 2.xlsx
+++ b/document/Tablas Taller 2.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller 2\Taller_2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274AD3A-ECCE-454A-8FA9-3C5D7353E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F81898-2903-481A-8E3D-796A20A8ADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{4EF253AD-84DE-40BE-81C1-9111B258F326}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{4EF253AD-84DE-40BE-81C1-9111B258F326}"/>
   </bookViews>
   <sheets>
     <sheet name="Apart" sheetId="3" r:id="rId1"/>
-    <sheet name="Casas" sheetId="1" r:id="rId2"/>
-    <sheet name="Tablas" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
+    <sheet name="Casas" sheetId="1" r:id="rId3"/>
+    <sheet name="Tablas" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabla2" sheetId="5" r:id="rId5"/>
+    <sheet name="MAE" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="89">
   <si>
     <t>Estrato</t>
   </si>
@@ -282,9 +284,6 @@
     </r>
   </si>
   <si>
-    <t>Rango de Precios</t>
-  </si>
-  <si>
     <t>Part. %</t>
   </si>
   <si>
@@ -319,6 +318,51 @@
   </si>
   <si>
     <t>21.10-21.25</t>
+  </si>
+  <si>
+    <t>Estadísticas de Rangos de Precios</t>
+  </si>
+  <si>
+    <t>Casas</t>
+  </si>
+  <si>
+    <t>Apartamentos</t>
+  </si>
+  <si>
+    <t>Rango de Precios en Log.</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>Habitaciones2</t>
+  </si>
+  <si>
+    <t>M2_por_Habitacion</t>
+  </si>
+  <si>
+    <t>Dist_Transp_Publico</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>OLS</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Modelo</t>
   </si>
   <si>
     <r>
@@ -330,7 +374,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Casas:</t>
+      <t xml:space="preserve">Muestra Completa : </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +384,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Estadísticas de Rangos de Precios</t>
+      <t>Errores de Pronóstico fuera de muestra</t>
     </r>
   </si>
   <si>
@@ -353,7 +397,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Apartamentos:</t>
+      <t xml:space="preserve">Estrato 4 : </t>
     </r>
     <r>
       <rPr>
@@ -363,7 +407,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Estadísticas de Rangos de Precios</t>
+      <t>Errores de Pronóstico fuera de muestra</t>
     </r>
   </si>
 </sst>
@@ -371,7 +415,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
@@ -431,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -439,12 +484,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,6 +555,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,8 +593,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1794,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D32A37-677E-4E92-A692-BB11BA6A5C64}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,15 +1894,16 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1820,11 +1912,11 @@
       <c r="B3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2393,11 +2485,11 @@
       <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2414,11 +2506,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1074E612-AF07-44CA-82AE-43402F036D2B}">
+  <dimension ref="B3:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>1302.3430000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>12.336</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>22.951000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>-0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8ED7FF-2943-4015-9729-5D8890946776}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,12 +2718,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2443,11 +2732,11 @@
       <c r="B3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3016,11 +3305,11 @@
       <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3036,12 +3325,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A579E13-D82E-4E08-A457-80C04663EFF3}">
-  <dimension ref="B1:N19"/>
+  <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,48 +3344,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3139,30 +3428,30 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="I4" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="33" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3699,32 +3988,35 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="I19" s="22" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="I19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="31" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3741,12 +4033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC0D4A2-4433-448F-9DE5-4D506A5BAFA5}">
-  <dimension ref="B1:P16"/>
+  <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,253 +4050,113 @@
     <col min="6" max="6" width="9.140625"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2"/>
-    <col min="12" max="12" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="J2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="J4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18">
-        <v>162.96106905074711</v>
-      </c>
-      <c r="G5">
-        <v>534</v>
-      </c>
-      <c r="H5" s="17">
-        <v>5.8868922941241317</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-      <c r="N5" s="18">
-        <v>115.9941262563091</v>
-      </c>
-      <c r="O5">
-        <v>2960</v>
-      </c>
-      <c r="P5" s="17">
-        <v>10.53643256327199</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18">
-        <v>184.1758814507719</v>
-      </c>
-      <c r="G6">
-        <v>652</v>
-      </c>
-      <c r="H6" s="17">
-        <v>7.1877411531253443</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="18">
-        <v>120.1920286860212</v>
-      </c>
-      <c r="O6">
-        <v>3787</v>
-      </c>
-      <c r="P6" s="17">
-        <v>13.48022639091589</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="18">
-        <v>191.4992548552394</v>
+        <v>162.96106905074711</v>
       </c>
       <c r="G7">
-        <v>815</v>
+        <v>534</v>
       </c>
       <c r="H7" s="17">
-        <v>8.9846764414066804</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="18">
-        <v>122.1672705785344</v>
-      </c>
-      <c r="O7">
-        <v>4231</v>
-      </c>
-      <c r="P7" s="17">
-        <v>15.060691275406681</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5.8868922941241317</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -4016,39 +4168,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="18">
-        <v>211.30202109171421</v>
+        <v>184.1758814507719</v>
       </c>
       <c r="G8">
-        <v>752</v>
+        <v>652</v>
       </c>
       <c r="H8" s="17">
-        <v>8.2901554404145088</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="N8" s="18">
-        <v>128.05243523218431</v>
-      </c>
-      <c r="O8">
-        <v>3430</v>
-      </c>
-      <c r="P8" s="17">
-        <v>12.209447193250989</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+        <v>7.1877411531253443</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -4060,39 +4191,18 @@
         <v>3</v>
       </c>
       <c r="F9" s="18">
-        <v>210.51470921792381</v>
+        <v>191.4992548552394</v>
       </c>
       <c r="G9">
-        <v>946</v>
+        <v>815</v>
       </c>
       <c r="H9" s="17">
-        <v>10.42883915775549</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="2">
-        <v>4</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2</v>
-      </c>
-      <c r="N9" s="18">
-        <v>134.92467472221901</v>
-      </c>
-      <c r="O9">
-        <v>3262</v>
-      </c>
-      <c r="P9" s="17">
-        <v>11.61143345317339</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+        <v>8.9846764414066804</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -4104,39 +4214,18 @@
         <v>3</v>
       </c>
       <c r="F10" s="18">
-        <v>208.04334202423911</v>
+        <v>211.30202109171421</v>
       </c>
       <c r="G10">
-        <v>1018</v>
+        <v>752</v>
       </c>
       <c r="H10" s="17">
-        <v>11.222577444603679</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="2">
-        <v>4</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3</v>
-      </c>
-      <c r="N10" s="18">
-        <v>138.77390642748591</v>
-      </c>
-      <c r="O10">
-        <v>2797</v>
-      </c>
-      <c r="P10" s="17">
-        <v>9.9562168511728899</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+        <v>8.2901554404145088</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -4148,39 +4237,18 @@
         <v>3</v>
       </c>
       <c r="F11" s="18">
-        <v>223.08966249472289</v>
+        <v>210.51470921792381</v>
       </c>
       <c r="G11">
-        <v>1026</v>
+        <v>946</v>
       </c>
       <c r="H11" s="17">
-        <v>11.310770587586809</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="2">
-        <v>4</v>
-      </c>
-      <c r="L11" s="2">
-        <v>3</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3</v>
-      </c>
-      <c r="N11" s="18">
-        <v>148.04746691684409</v>
-      </c>
-      <c r="O11">
-        <v>2147</v>
-      </c>
-      <c r="P11" s="17">
-        <v>7.642473213967893</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+        <v>10.42883915775549</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -4192,83 +4260,41 @@
         <v>3</v>
       </c>
       <c r="F12" s="18">
-        <v>226.87390460849019</v>
+        <v>208.04334202423911</v>
       </c>
       <c r="G12">
-        <v>1585</v>
+        <v>1018</v>
       </c>
       <c r="H12" s="17">
-        <v>17.473266453533238</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="2">
-        <v>4</v>
-      </c>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
-        <v>3</v>
-      </c>
-      <c r="N12" s="18">
-        <v>161.5810723301928</v>
-      </c>
-      <c r="O12">
-        <v>2733</v>
-      </c>
-      <c r="P12" s="17">
-        <v>9.7284020930480892</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+        <v>11.222577444603679</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="18">
-        <v>231.83348094643651</v>
+        <v>223.08966249472289</v>
       </c>
       <c r="G13">
-        <v>777</v>
+        <v>1026</v>
       </c>
       <c r="H13" s="17">
-        <v>8.5657590122367981</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="2">
-        <v>4</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2">
-        <v>3</v>
-      </c>
-      <c r="N13" s="18">
-        <v>174.19145481602371</v>
-      </c>
-      <c r="O13">
-        <v>1189</v>
-      </c>
-      <c r="P13" s="17">
-        <v>4.2323710532872951</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+        <v>11.310770587586809</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -4277,113 +4303,526 @@
         <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="18">
-        <v>249.4940487370458</v>
+        <v>226.87390460849019</v>
       </c>
       <c r="G14">
-        <v>535</v>
+        <v>1585</v>
       </c>
       <c r="H14" s="17">
-        <v>5.8979164369970238</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="2">
-        <v>4</v>
-      </c>
-      <c r="L14" s="2">
-        <v>3</v>
-      </c>
-      <c r="M14" s="2">
-        <v>3</v>
-      </c>
-      <c r="N14" s="18">
-        <v>191.11187208757309</v>
-      </c>
-      <c r="O14">
-        <v>1057</v>
-      </c>
-      <c r="P14" s="17">
-        <v>3.762503114654896</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+        <v>17.473266453533238</v>
+      </c>
+      <c r="J14" s="20">
+        <f>EXP(AVERAGE(20.55,20.8))</f>
+        <v>952880442.57768357</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="18">
+        <v>231.83348094643651</v>
+      </c>
+      <c r="G15">
+        <v>777</v>
+      </c>
+      <c r="H15" s="17">
+        <v>8.5657590122367981</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18">
+        <v>249.4940487370458</v>
+      </c>
+      <c r="G16">
+        <v>535</v>
+      </c>
+      <c r="H16" s="17">
+        <v>5.8979164369970238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18">
         <v>258.53918700332167</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>431</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H17" s="17">
         <v>4.7514055782162936</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="2">
+    </row>
+    <row r="18" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2">
         <v>4</v>
       </c>
-      <c r="L15" s="2">
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>115.9941262563091</v>
+      </c>
+      <c r="G21">
+        <v>2960</v>
+      </c>
+      <c r="H21" s="17">
+        <v>10.53643256327199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>120.1920286860212</v>
+      </c>
+      <c r="G22">
+        <v>3787</v>
+      </c>
+      <c r="H22" s="17">
+        <v>13.48022639091589</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>122.1672705785344</v>
+      </c>
+      <c r="G23">
+        <v>4231</v>
+      </c>
+      <c r="H23" s="17">
+        <v>15.060691275406681</v>
+      </c>
+      <c r="J23" s="20">
+        <f>EXP(AVERAGE(19.8,19.95))</f>
+        <v>428156782.19098991</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="2">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>128.05243523218431</v>
+      </c>
+      <c r="G24">
+        <v>3430</v>
+      </c>
+      <c r="H24" s="17">
+        <v>12.209447193250989</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="N15" s="18">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>134.92467472221901</v>
+      </c>
+      <c r="G25">
+        <v>3262</v>
+      </c>
+      <c r="H25" s="17">
+        <v>11.61143345317339</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="18">
+        <v>138.77390642748591</v>
+      </c>
+      <c r="G26">
+        <v>2797</v>
+      </c>
+      <c r="H26" s="17">
+        <v>9.9562168511728899</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="18">
+        <v>148.04746691684409</v>
+      </c>
+      <c r="G27">
+        <v>2147</v>
+      </c>
+      <c r="H27" s="17">
+        <v>7.642473213967893</v>
+      </c>
+      <c r="J27">
+        <v>428156782.19098997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="18">
+        <v>161.5810723301928</v>
+      </c>
+      <c r="G28">
+        <v>2733</v>
+      </c>
+      <c r="H28" s="17">
+        <v>9.7284020930480892</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="18">
+        <v>174.19145481602371</v>
+      </c>
+      <c r="G29">
+        <v>1189</v>
+      </c>
+      <c r="H29" s="17">
+        <v>4.2323710532872951</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18">
+        <v>191.11187208757309</v>
+      </c>
+      <c r="G30">
+        <v>1057</v>
+      </c>
+      <c r="H30" s="17">
+        <v>3.762503114654896</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="18">
         <v>207.1175337558731</v>
       </c>
-      <c r="O15">
+      <c r="G31">
         <v>500</v>
       </c>
-      <c r="P15" s="17">
+      <c r="H31" s="17">
         <v>1.779802797849998</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="J16" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J16:P16"/>
+  <mergeCells count="9">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BCDBDE-80DF-486F-8CBC-9D050497E3A3}">
+  <dimension ref="C2:G9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="F2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="3:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="22">
+        <v>168406401</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="22">
+        <v>165841831</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="22">
+        <v>171333841</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="22">
+        <v>167582472</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="22">
+        <v>168462170</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="22">
+        <v>169891322</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="22">
+        <v>168348307</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="22">
+        <v>168242239</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="26">
+        <v>147172665</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="26">
+        <v>143321238</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
